--- a/Gantt-projektplanlægger1.xlsx
+++ b/Gantt-projektplanlægger1.xlsx
@@ -59,9 +59,6 @@
     <t>FAKTISK VARIGHED</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fremhævning af tidsrum:</t>
-  </si>
-  <si>
     <t>PROCENTDEL FULDFØRT</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>Mig (planlægger for fjolser)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fremhævning af tidsrum:+G2:TB2:G2</t>
   </si>
 </sst>
 </file>
@@ -988,7 +988,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1023,14 +1023,14 @@
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H2" s="14">
         <v>1</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
@@ -1038,21 +1038,21 @@
       <c r="O2" s="31"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R2" s="32"/>
       <c r="S2" s="32"/>
       <c r="T2" s="31"/>
       <c r="U2" s="17"/>
       <c r="V2" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W2" s="22"/>
       <c r="X2" s="22"/>
       <c r="Y2" s="33"/>
       <c r="Z2" s="18"/>
       <c r="AA2" s="34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB2" s="35"/>
       <c r="AC2" s="35"/>
@@ -1062,7 +1062,7 @@
       <c r="AG2" s="36"/>
       <c r="AH2" s="19"/>
       <c r="AI2" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ2" s="22"/>
       <c r="AK2" s="22"/>
@@ -1089,10 +1089,10 @@
         <v>6</v>
       </c>
       <c r="G3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="20" t="s">
         <v>8</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>

--- a/Gantt-projektplanlægger1.xlsx
+++ b/Gantt-projektplanlægger1.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Projektplanlægger</t>
   </si>
@@ -152,32 +152,113 @@
     </r>
   </si>
   <si>
-    <t>Egon</t>
-  </si>
-  <si>
-    <t>Kjeld</t>
-  </si>
-  <si>
-    <t>Benny</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>I alt</t>
-  </si>
-  <si>
-    <t>Mig (planlægger for fjolser)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Fremhævning af tidsrum:+G2:TB2:G2</t>
+  </si>
+  <si>
+    <t>Hver collone er en dag</t>
+  </si>
+  <si>
+    <t>Opsætning af base-website og database (Kjeld)</t>
+  </si>
+  <si>
+    <t>Udarbejde design i photoshop, tilpasse grfiskelementer (Kjeld)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Opsætning af kontaktsidens formular (clientside validering) (Kjeld)</t>
+  </si>
+  <si>
+    <t>kontaktside valdiering af (serverside) samt indsæt I DB (INSERT) (Kjeld)</t>
+  </si>
+  <si>
+    <t>Loginformular til backend, validering, database, sessions (Kjeld)</t>
+  </si>
+  <si>
+    <t>*Ret nyhed, genbrug form og validering fra opret nyhed, hent den ønskede nyhed fra DB og for udfyld formularen, opdater database (UPDATE) (Kjeld)</t>
+  </si>
+  <si>
+    <t>*Ret aktivitet, genbrug form og validering fra opret aktivitet, hent den ønskede aktivtet fra DB og udfyld formularen, opdater database (UPDATE) (Kjeld)</t>
+  </si>
+  <si>
+    <t>*slet nyhed, slet fra databasen (DELETE)(Kjeld)</t>
+  </si>
+  <si>
+    <t>*Aktivitet admin billede upload funktioner, flyt til server, slet fra server, sikring af unikke filnavne. (Kjeld)</t>
+  </si>
+  <si>
+    <t>Slet aktivitet, slet fra databasen (DELETE) (Kjeld)</t>
+  </si>
+  <si>
+    <t>opsætning af design HTML/CSS, inklusiv menuer og andre gentagende elementer (Master/Includes) (Kjeld)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opsætning af forsiden HTML/CSS, statisk (Benny) </t>
+  </si>
+  <si>
+    <t>Opsætning af Nyheds siden HTML/CSS,statisk (Benny)</t>
+  </si>
+  <si>
+    <t>Opsætning af Nyheds detalje side HTML/CSS,statisk (Benny)</t>
+  </si>
+  <si>
+    <t>Opsætning af Aktivitets siden HTML/CSS, statisk (Benny)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Opsætning af Aktivitetssiden detalje side HTML/CSS, statisk(Benny)</t>
+  </si>
+  <si>
+    <t>Opsætning af kontakt siden HTML/CSS, statisk (Benny)</t>
+  </si>
+  <si>
+    <t>Gør designet responsivt (Booststrap) - evt (Egon)</t>
+  </si>
+  <si>
+    <t>*Opret nyhed, HTML/CSS formular, validering, indsæt I DB (INSERT) (Egon)</t>
+  </si>
+  <si>
+    <t>*Opret aktivitet, HTML/CSS formular, valdiering, indsæt I DB (INSERT) (Egon)</t>
+  </si>
+  <si>
+    <t>Gør forsiden dynamist vis de seneste 3 nyheder (Egon)</t>
+  </si>
+  <si>
+    <t>Gør aktivitetssiden dynamtisk, vis 2 vilkårlige nyheder (Egon)</t>
+  </si>
+  <si>
+    <t>Gør enkelt nyhed siden dynamisk (Egon)</t>
+  </si>
+  <si>
+    <t>Gør enkelt aktivitet dynamisk (Egon)</t>
+  </si>
+  <si>
+    <t>Alfatest (Egon)</t>
+  </si>
+  <si>
+    <t>Betatest (Egon)</t>
+  </si>
+  <si>
+    <t>launch event (Lukas)</t>
+  </si>
+  <si>
+    <t>*Slet nyhed, slet fra databasen (DELETE) (Lukas)</t>
+  </si>
+  <si>
+    <t>*vis oversigt over alle henvendelser, hent fra DB (SELECT) (Lukas)</t>
+  </si>
+  <si>
+    <t>*Vis opsigt over alle aktiviteter, hent fra DB (SELECT) (Lukas)</t>
+  </si>
+  <si>
+    <t>*Vis oversigt over alle nyheder, hent fra DB (SELECT) (Lukas)</t>
+  </si>
+  <si>
+    <t>møde med kunden hvert 14. dag (Lukas)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -207,12 +288,6 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -272,6 +347,28 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="13"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Corbel"/>
       <family val="2"/>
@@ -411,14 +508,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" applyFill="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -427,44 +524,44 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="1">
+    <xf numFmtId="1" fontId="12" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,25 +571,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="3">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="3">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="7">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -501,13 +595,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="1" xfId="13">
+    <xf numFmtId="1" fontId="12" fillId="6" borderId="1" xfId="13">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
@@ -525,7 +619,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
@@ -534,34 +628,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
@@ -575,6 +669,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -985,16 +1091,16 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO30"/>
+  <dimension ref="B1:GE43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="56.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="90.21875" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="2.77734375" style="1"/>
@@ -1002,125 +1108,131 @@
     <col min="16" max="16" width="2.77734375" style="1"/>
     <col min="17" max="20" width="4" style="1" customWidth="1"/>
     <col min="21" max="27" width="2.77734375" style="1"/>
+    <col min="67" max="67" width="3" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="4" bestFit="1" customWidth="1"/>
+    <col min="109" max="187" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="2:187" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="2:187" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="14">
+        <v>14</v>
+      </c>
+      <c r="H2" s="13">
         <v>1</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="29" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="29" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="21" t="s">
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="34" t="s">
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="21" t="s">
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-    </row>
-    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+    </row>
+    <row r="3" spans="2:187" s="10" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-    </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="25"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+    </row>
+    <row r="4" spans="2:187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1301,276 +1413,2138 @@
       <c r="BO4" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
+      <c r="BP4" s="3">
+        <v>61</v>
+      </c>
+      <c r="BQ4" s="3">
+        <v>62</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>63</v>
+      </c>
+      <c r="BS4" s="3">
+        <v>64</v>
+      </c>
+      <c r="BT4" s="3">
+        <v>65</v>
+      </c>
+      <c r="BU4" s="3">
+        <v>66</v>
+      </c>
+      <c r="BV4" s="3">
+        <v>67</v>
+      </c>
+      <c r="BW4" s="3">
+        <v>68</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>69</v>
+      </c>
+      <c r="BY4" s="3">
+        <v>70</v>
+      </c>
+      <c r="BZ4" s="3">
+        <v>71</v>
+      </c>
+      <c r="CA4" s="3">
+        <v>72</v>
+      </c>
+      <c r="CB4" s="3">
+        <v>73</v>
+      </c>
+      <c r="CC4" s="3">
+        <v>74</v>
+      </c>
+      <c r="CD4" s="3">
+        <v>75</v>
+      </c>
+      <c r="CE4" s="3">
+        <v>76</v>
+      </c>
+      <c r="CF4" s="3">
+        <v>77</v>
+      </c>
+      <c r="CG4" s="3">
+        <v>78</v>
+      </c>
+      <c r="CH4" s="3">
+        <v>79</v>
+      </c>
+      <c r="CI4" s="3">
+        <v>80</v>
+      </c>
+      <c r="CJ4" s="3">
+        <v>81</v>
+      </c>
+      <c r="CK4" s="3">
+        <v>82</v>
+      </c>
+      <c r="CL4" s="3">
+        <v>83</v>
+      </c>
+      <c r="CM4" s="3">
+        <v>84</v>
+      </c>
+      <c r="CN4" s="3">
+        <v>85</v>
+      </c>
+      <c r="CO4" s="3">
+        <v>86</v>
+      </c>
+      <c r="CP4" s="3">
+        <v>87</v>
+      </c>
+      <c r="CQ4" s="3">
+        <v>88</v>
+      </c>
+      <c r="CR4" s="3">
+        <v>89</v>
+      </c>
+      <c r="CS4" s="3">
+        <v>90</v>
+      </c>
+      <c r="CT4" s="3">
+        <v>91</v>
+      </c>
+      <c r="CU4" s="3">
+        <v>92</v>
+      </c>
+      <c r="CV4" s="3">
+        <v>93</v>
+      </c>
+      <c r="CW4" s="3">
+        <v>94</v>
+      </c>
+      <c r="CX4" s="3">
+        <v>95</v>
+      </c>
+      <c r="CY4" s="3">
+        <v>96</v>
+      </c>
+      <c r="CZ4" s="3">
+        <v>97</v>
+      </c>
+      <c r="DA4" s="3">
+        <v>98</v>
+      </c>
+      <c r="DB4" s="3">
+        <v>99</v>
+      </c>
+      <c r="DC4" s="3">
+        <v>100</v>
+      </c>
+      <c r="DD4" s="3">
+        <v>101</v>
+      </c>
+      <c r="DE4" s="3">
+        <v>102</v>
+      </c>
+      <c r="DF4" s="3">
+        <v>103</v>
+      </c>
+      <c r="DG4" s="3">
+        <v>104</v>
+      </c>
+      <c r="DH4" s="3">
+        <v>105</v>
+      </c>
+      <c r="DI4" s="3">
+        <v>106</v>
+      </c>
+      <c r="DJ4" s="3">
+        <v>107</v>
+      </c>
+      <c r="DK4" s="3">
+        <v>108</v>
+      </c>
+      <c r="DL4" s="3">
+        <v>109</v>
+      </c>
+      <c r="DM4" s="3">
+        <v>110</v>
+      </c>
+      <c r="DN4" s="3">
+        <v>111</v>
+      </c>
+      <c r="DO4" s="3">
+        <v>112</v>
+      </c>
+      <c r="DP4" s="3">
+        <v>113</v>
+      </c>
+      <c r="DQ4" s="3">
+        <v>114</v>
+      </c>
+      <c r="DR4" s="3">
+        <v>115</v>
+      </c>
+      <c r="DS4" s="3">
+        <v>116</v>
+      </c>
+      <c r="DT4" s="3">
+        <v>117</v>
+      </c>
+      <c r="DU4" s="3">
+        <v>118</v>
+      </c>
+      <c r="DV4" s="3">
+        <v>119</v>
+      </c>
+      <c r="DW4" s="3">
+        <v>120</v>
+      </c>
+      <c r="DX4" s="3">
+        <v>121</v>
+      </c>
+      <c r="DY4" s="3">
+        <v>122</v>
+      </c>
+      <c r="DZ4" s="3">
+        <v>123</v>
+      </c>
+      <c r="EA4" s="3">
+        <v>124</v>
+      </c>
+      <c r="EB4" s="3">
+        <v>125</v>
+      </c>
+      <c r="EC4" s="3">
+        <v>126</v>
+      </c>
+      <c r="ED4" s="3">
+        <v>127</v>
+      </c>
+      <c r="EE4" s="3">
+        <v>128</v>
+      </c>
+      <c r="EF4" s="3">
+        <v>129</v>
+      </c>
+      <c r="EG4" s="3">
+        <v>130</v>
+      </c>
+      <c r="EH4" s="3">
+        <v>131</v>
+      </c>
+      <c r="EI4" s="3">
+        <v>132</v>
+      </c>
+      <c r="EJ4" s="3">
+        <v>133</v>
+      </c>
+      <c r="EK4" s="3">
+        <v>134</v>
+      </c>
+      <c r="EL4" s="3">
+        <v>135</v>
+      </c>
+      <c r="EM4" s="3">
+        <v>136</v>
+      </c>
+      <c r="EN4" s="3">
+        <v>137</v>
+      </c>
+      <c r="EO4" s="3">
+        <v>138</v>
+      </c>
+      <c r="EP4" s="3">
+        <v>139</v>
+      </c>
+      <c r="EQ4" s="3">
+        <v>140</v>
+      </c>
+      <c r="ER4" s="3">
+        <v>141</v>
+      </c>
+      <c r="ES4" s="3">
+        <v>142</v>
+      </c>
+      <c r="ET4" s="3">
+        <v>143</v>
+      </c>
+      <c r="EU4" s="3">
+        <v>144</v>
+      </c>
+      <c r="EV4" s="3">
+        <v>145</v>
+      </c>
+      <c r="EW4" s="3">
+        <v>146</v>
+      </c>
+      <c r="EX4" s="3">
+        <v>147</v>
+      </c>
+      <c r="EY4" s="3">
+        <v>148</v>
+      </c>
+      <c r="EZ4" s="3">
+        <v>149</v>
+      </c>
+      <c r="FA4" s="3">
+        <v>150</v>
+      </c>
+      <c r="FB4" s="3">
+        <v>151</v>
+      </c>
+      <c r="FC4" s="3">
+        <v>152</v>
+      </c>
+      <c r="FD4" s="3">
+        <v>153</v>
+      </c>
+      <c r="FE4" s="3">
+        <v>154</v>
+      </c>
+      <c r="FF4" s="3">
+        <v>155</v>
+      </c>
+      <c r="FG4" s="3">
+        <v>156</v>
+      </c>
+      <c r="FH4" s="3">
+        <v>157</v>
+      </c>
+      <c r="FI4" s="3">
+        <v>158</v>
+      </c>
+      <c r="FJ4" s="3">
+        <v>159</v>
+      </c>
+      <c r="FK4" s="3">
+        <v>160</v>
+      </c>
+      <c r="FL4" s="3">
+        <v>161</v>
+      </c>
+      <c r="FM4" s="3">
+        <v>162</v>
+      </c>
+      <c r="FN4" s="3">
+        <v>163</v>
+      </c>
+      <c r="FO4" s="3">
+        <v>164</v>
+      </c>
+      <c r="FP4" s="3">
+        <v>165</v>
+      </c>
+      <c r="FQ4" s="3">
+        <v>166</v>
+      </c>
+      <c r="FR4" s="3">
+        <v>167</v>
+      </c>
+      <c r="FS4" s="3">
+        <v>168</v>
+      </c>
+      <c r="FT4" s="3">
+        <v>169</v>
+      </c>
+      <c r="FU4" s="3">
+        <v>170</v>
+      </c>
+      <c r="FV4" s="3">
+        <v>171</v>
+      </c>
+      <c r="FW4" s="3">
+        <v>172</v>
+      </c>
+      <c r="FX4" s="3">
+        <v>173</v>
+      </c>
+      <c r="FY4" s="3">
+        <v>174</v>
+      </c>
+      <c r="FZ4" s="3">
+        <v>175</v>
+      </c>
+      <c r="GA4" s="3">
+        <v>176</v>
+      </c>
+      <c r="GB4" s="3">
+        <v>177</v>
+      </c>
+      <c r="GC4" s="3">
+        <v>178</v>
+      </c>
+      <c r="GD4" s="3">
+        <v>179</v>
+      </c>
+      <c r="GE4" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6">
+        <v>35</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6">
+        <v>61</v>
+      </c>
+      <c r="D7" s="6">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>30</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6">
+        <v>25</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6">
+        <v>61</v>
+      </c>
+      <c r="D12" s="6">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="6">
+        <v>81</v>
+      </c>
+      <c r="D13" s="6">
+        <v>15</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="6">
+        <v>96</v>
+      </c>
+      <c r="D14" s="6">
+        <v>26</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6">
+        <v>85</v>
+      </c>
+      <c r="D15" s="6">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C16" s="6">
+        <v>100</v>
+      </c>
+      <c r="D16" s="6">
+        <v>35</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6">
+        <v>136</v>
+      </c>
+      <c r="D17" s="6">
+        <v>30</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
+      <c r="D18" s="6">
         <v>15</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6">
+        <v>31</v>
+      </c>
+      <c r="D19" s="6">
+        <v>25</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6">
+        <v>166</v>
+      </c>
+      <c r="D20" s="6">
+        <v>20</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="6">
+        <v>186</v>
+      </c>
+      <c r="D21" s="6">
+        <v>15</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="6">
+        <v>30</v>
+      </c>
+      <c r="D22" s="6">
+        <v>15</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="6">
+        <v>56</v>
+      </c>
+      <c r="D23" s="6">
+        <v>30</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="6">
+        <v>201</v>
+      </c>
+      <c r="D24" s="6">
+        <v>25</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6">
+        <v>226</v>
+      </c>
+      <c r="D25" s="6">
+        <v>20</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="6">
+        <v>246</v>
+      </c>
+      <c r="D26" s="6">
+        <v>23</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="6">
+        <v>45</v>
+      </c>
+      <c r="D27" s="6">
+        <v>35</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="6">
+        <v>80</v>
+      </c>
+      <c r="D28" s="6">
+        <v>10</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="6">
+        <v>86</v>
+      </c>
+      <c r="D29" s="6">
+        <v>20</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="6">
+        <v>106</v>
+      </c>
+      <c r="D30" s="6">
+        <v>15</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1"/>
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
+      <c r="BT30" s="1"/>
+      <c r="BU30" s="1"/>
+      <c r="BV30" s="1"/>
+      <c r="BW30" s="1"/>
+      <c r="BX30" s="1"/>
+      <c r="BY30" s="1"/>
+      <c r="BZ30" s="1"/>
+      <c r="CA30" s="1"/>
+      <c r="CB30" s="1"/>
+      <c r="CC30" s="1"/>
+      <c r="CD30" s="1"/>
+      <c r="CE30" s="1"/>
+      <c r="CF30" s="1"/>
+      <c r="CG30" s="1"/>
+      <c r="CH30" s="1"/>
+      <c r="CI30" s="1"/>
+      <c r="CJ30" s="1"/>
+      <c r="CK30" s="1"/>
+      <c r="CL30" s="1"/>
+      <c r="CM30" s="1"/>
+      <c r="CN30" s="1"/>
+      <c r="CO30" s="1"/>
+      <c r="CP30" s="1"/>
+      <c r="CQ30" s="1"/>
+      <c r="CR30" s="1"/>
+      <c r="CS30" s="1"/>
+      <c r="CT30" s="1"/>
+      <c r="CU30" s="1"/>
+      <c r="CV30" s="1"/>
+      <c r="CW30" s="1"/>
+      <c r="CX30" s="1"/>
+      <c r="CY30" s="1"/>
+      <c r="CZ30" s="1"/>
+      <c r="DA30" s="1"/>
+      <c r="DB30" s="1"/>
+      <c r="DC30" s="1"/>
+      <c r="DD30" s="1"/>
+      <c r="DE30" s="1"/>
+      <c r="DF30" s="1"/>
+      <c r="DG30" s="1"/>
+      <c r="DH30" s="1"/>
+      <c r="DI30" s="1"/>
+      <c r="DJ30" s="1"/>
+      <c r="DK30" s="1"/>
+      <c r="DL30" s="1"/>
+      <c r="DM30" s="1"/>
+      <c r="DN30" s="1"/>
+      <c r="DO30" s="1"/>
+      <c r="DP30" s="1"/>
+      <c r="DQ30" s="1"/>
+      <c r="DR30" s="1"/>
+      <c r="DS30" s="1"/>
+      <c r="DT30" s="1"/>
+      <c r="DU30" s="1"/>
+      <c r="DV30" s="1"/>
+      <c r="DW30" s="1"/>
+      <c r="DX30" s="1"/>
+      <c r="DY30" s="1"/>
+      <c r="DZ30" s="1"/>
+      <c r="EA30" s="1"/>
+      <c r="EB30" s="1"/>
+      <c r="EC30" s="1"/>
+      <c r="ED30" s="1"/>
+      <c r="EE30" s="1"/>
+      <c r="EF30" s="1"/>
+      <c r="EG30" s="1"/>
+      <c r="EH30" s="1"/>
+      <c r="EI30" s="1"/>
+      <c r="EJ30" s="1"/>
+      <c r="EK30" s="1"/>
+      <c r="EL30" s="1"/>
+      <c r="EM30" s="1"/>
+      <c r="EN30" s="1"/>
+      <c r="EO30" s="1"/>
+      <c r="EP30" s="1"/>
+      <c r="EQ30" s="1"/>
+      <c r="ER30" s="1"/>
+      <c r="ES30" s="1"/>
+      <c r="ET30" s="1"/>
+      <c r="EU30" s="1"/>
+      <c r="EV30" s="1"/>
+      <c r="EW30" s="1"/>
+      <c r="EX30" s="1"/>
+      <c r="EY30" s="1"/>
+      <c r="EZ30" s="1"/>
+      <c r="FA30" s="1"/>
+      <c r="FB30" s="1"/>
+      <c r="FC30" s="1"/>
+      <c r="FD30" s="1"/>
+      <c r="FE30" s="1"/>
+      <c r="FF30" s="1"/>
+      <c r="FG30" s="1"/>
+      <c r="FH30" s="1"/>
+      <c r="FI30" s="1"/>
+      <c r="FJ30" s="1"/>
+      <c r="FK30" s="1"/>
+      <c r="FL30" s="1"/>
+      <c r="FM30" s="1"/>
+      <c r="FN30" s="1"/>
+      <c r="FO30" s="1"/>
+      <c r="FP30" s="1"/>
+      <c r="FQ30" s="1"/>
+      <c r="FR30" s="1"/>
+      <c r="FS30" s="1"/>
+      <c r="FT30" s="1"/>
+      <c r="FU30" s="1"/>
+      <c r="FV30" s="1"/>
+      <c r="FW30" s="1"/>
+      <c r="FX30" s="1"/>
+      <c r="FY30" s="1"/>
+      <c r="FZ30" s="1"/>
+      <c r="GA30" s="1"/>
+      <c r="GB30" s="1"/>
+      <c r="GC30" s="1"/>
+      <c r="GD30" s="1"/>
+      <c r="GE30" s="1"/>
+    </row>
+    <row r="31" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="6">
+        <v>121</v>
+      </c>
+      <c r="D31" s="6">
+        <v>25</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="1"/>
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="1"/>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="1"/>
+      <c r="BT31" s="1"/>
+      <c r="BU31" s="1"/>
+      <c r="BV31" s="1"/>
+      <c r="BW31" s="1"/>
+      <c r="BX31" s="1"/>
+      <c r="BY31" s="1"/>
+      <c r="BZ31" s="1"/>
+      <c r="CA31" s="1"/>
+      <c r="CB31" s="1"/>
+      <c r="CC31" s="1"/>
+      <c r="CD31" s="1"/>
+      <c r="CE31" s="1"/>
+      <c r="CF31" s="1"/>
+      <c r="CG31" s="1"/>
+      <c r="CH31" s="1"/>
+      <c r="CI31" s="1"/>
+      <c r="CJ31" s="1"/>
+      <c r="CK31" s="1"/>
+      <c r="CL31" s="1"/>
+      <c r="CM31" s="1"/>
+      <c r="CN31" s="1"/>
+      <c r="CO31" s="1"/>
+      <c r="CP31" s="1"/>
+      <c r="CQ31" s="1"/>
+      <c r="CR31" s="1"/>
+      <c r="CS31" s="1"/>
+      <c r="CT31" s="1"/>
+      <c r="CU31" s="1"/>
+      <c r="CV31" s="1"/>
+      <c r="CW31" s="1"/>
+      <c r="CX31" s="1"/>
+      <c r="CY31" s="1"/>
+      <c r="CZ31" s="1"/>
+      <c r="DA31" s="1"/>
+      <c r="DB31" s="1"/>
+      <c r="DC31" s="1"/>
+      <c r="DD31" s="1"/>
+      <c r="DE31" s="1"/>
+      <c r="DF31" s="1"/>
+      <c r="DG31" s="1"/>
+      <c r="DH31" s="1"/>
+      <c r="DI31" s="1"/>
+      <c r="DJ31" s="1"/>
+      <c r="DK31" s="1"/>
+      <c r="DL31" s="1"/>
+      <c r="DM31" s="1"/>
+      <c r="DN31" s="1"/>
+      <c r="DO31" s="1"/>
+      <c r="DP31" s="1"/>
+      <c r="DQ31" s="1"/>
+      <c r="DR31" s="1"/>
+      <c r="DS31" s="1"/>
+      <c r="DT31" s="1"/>
+      <c r="DU31" s="1"/>
+      <c r="DV31" s="1"/>
+      <c r="DW31" s="1"/>
+      <c r="DX31" s="1"/>
+      <c r="DY31" s="1"/>
+      <c r="DZ31" s="1"/>
+      <c r="EA31" s="1"/>
+      <c r="EB31" s="1"/>
+      <c r="EC31" s="1"/>
+      <c r="ED31" s="1"/>
+      <c r="EE31" s="1"/>
+      <c r="EF31" s="1"/>
+      <c r="EG31" s="1"/>
+      <c r="EH31" s="1"/>
+      <c r="EI31" s="1"/>
+      <c r="EJ31" s="1"/>
+      <c r="EK31" s="1"/>
+      <c r="EL31" s="1"/>
+      <c r="EM31" s="1"/>
+      <c r="EN31" s="1"/>
+      <c r="EO31" s="1"/>
+      <c r="EP31" s="1"/>
+      <c r="EQ31" s="1"/>
+      <c r="ER31" s="1"/>
+      <c r="ES31" s="1"/>
+      <c r="ET31" s="1"/>
+      <c r="EU31" s="1"/>
+      <c r="EV31" s="1"/>
+      <c r="EW31" s="1"/>
+      <c r="EX31" s="1"/>
+      <c r="EY31" s="1"/>
+      <c r="EZ31" s="1"/>
+      <c r="FA31" s="1"/>
+      <c r="FB31" s="1"/>
+      <c r="FC31" s="1"/>
+      <c r="FD31" s="1"/>
+      <c r="FE31" s="1"/>
+      <c r="FF31" s="1"/>
+      <c r="FG31" s="1"/>
+      <c r="FH31" s="1"/>
+      <c r="FI31" s="1"/>
+      <c r="FJ31" s="1"/>
+      <c r="FK31" s="1"/>
+      <c r="FL31" s="1"/>
+      <c r="FM31" s="1"/>
+      <c r="FN31" s="1"/>
+      <c r="FO31" s="1"/>
+      <c r="FP31" s="1"/>
+      <c r="FQ31" s="1"/>
+      <c r="FR31" s="1"/>
+      <c r="FS31" s="1"/>
+      <c r="FT31" s="1"/>
+      <c r="FU31" s="1"/>
+      <c r="FV31" s="1"/>
+      <c r="FW31" s="1"/>
+      <c r="FX31" s="1"/>
+      <c r="FY31" s="1"/>
+      <c r="FZ31" s="1"/>
+      <c r="GA31" s="1"/>
+      <c r="GB31" s="1"/>
+      <c r="GC31" s="1"/>
+      <c r="GD31" s="1"/>
+      <c r="GE31" s="1"/>
+    </row>
+    <row r="32" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="6">
+        <v>146</v>
+      </c>
+      <c r="D32" s="6">
+        <v>20</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="1"/>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="1"/>
+      <c r="BM32" s="1"/>
+      <c r="BN32" s="1"/>
+      <c r="BO32" s="1"/>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="1"/>
+      <c r="BR32" s="1"/>
+      <c r="BS32" s="1"/>
+      <c r="BT32" s="1"/>
+      <c r="BU32" s="1"/>
+      <c r="BV32" s="1"/>
+      <c r="BW32" s="1"/>
+      <c r="BX32" s="1"/>
+      <c r="BY32" s="1"/>
+      <c r="BZ32" s="1"/>
+      <c r="CA32" s="1"/>
+      <c r="CB32" s="1"/>
+      <c r="CC32" s="1"/>
+      <c r="CD32" s="1"/>
+      <c r="CE32" s="1"/>
+      <c r="CF32" s="1"/>
+      <c r="CG32" s="1"/>
+      <c r="CH32" s="1"/>
+      <c r="CI32" s="1"/>
+      <c r="CJ32" s="1"/>
+      <c r="CK32" s="1"/>
+      <c r="CL32" s="1"/>
+      <c r="CM32" s="1"/>
+      <c r="CN32" s="1"/>
+      <c r="CO32" s="1"/>
+      <c r="CP32" s="1"/>
+      <c r="CQ32" s="1"/>
+      <c r="CR32" s="1"/>
+      <c r="CS32" s="1"/>
+      <c r="CT32" s="1"/>
+      <c r="CU32" s="1"/>
+      <c r="CV32" s="1"/>
+      <c r="CW32" s="1"/>
+      <c r="CX32" s="1"/>
+      <c r="CY32" s="1"/>
+      <c r="CZ32" s="1"/>
+      <c r="DA32" s="1"/>
+      <c r="DB32" s="1"/>
+      <c r="DC32" s="1"/>
+      <c r="DD32" s="1"/>
+      <c r="DE32" s="1"/>
+      <c r="DF32" s="1"/>
+      <c r="DG32" s="1"/>
+      <c r="DH32" s="1"/>
+      <c r="DI32" s="1"/>
+      <c r="DJ32" s="1"/>
+      <c r="DK32" s="1"/>
+      <c r="DL32" s="1"/>
+      <c r="DM32" s="1"/>
+      <c r="DN32" s="1"/>
+      <c r="DO32" s="1"/>
+      <c r="DP32" s="1"/>
+      <c r="DQ32" s="1"/>
+      <c r="DR32" s="1"/>
+      <c r="DS32" s="1"/>
+      <c r="DT32" s="1"/>
+      <c r="DU32" s="1"/>
+      <c r="DV32" s="1"/>
+      <c r="DW32" s="1"/>
+      <c r="DX32" s="1"/>
+      <c r="DY32" s="1"/>
+      <c r="DZ32" s="1"/>
+      <c r="EA32" s="1"/>
+      <c r="EB32" s="1"/>
+      <c r="EC32" s="1"/>
+      <c r="ED32" s="1"/>
+      <c r="EE32" s="1"/>
+      <c r="EF32" s="1"/>
+      <c r="EG32" s="1"/>
+      <c r="EH32" s="1"/>
+      <c r="EI32" s="1"/>
+      <c r="EJ32" s="1"/>
+      <c r="EK32" s="1"/>
+      <c r="EL32" s="1"/>
+      <c r="EM32" s="1"/>
+      <c r="EN32" s="1"/>
+      <c r="EO32" s="1"/>
+      <c r="EP32" s="1"/>
+      <c r="EQ32" s="1"/>
+      <c r="ER32" s="1"/>
+      <c r="ES32" s="1"/>
+      <c r="ET32" s="1"/>
+      <c r="EU32" s="1"/>
+      <c r="EV32" s="1"/>
+      <c r="EW32" s="1"/>
+      <c r="EX32" s="1"/>
+      <c r="EY32" s="1"/>
+      <c r="EZ32" s="1"/>
+      <c r="FA32" s="1"/>
+      <c r="FB32" s="1"/>
+      <c r="FC32" s="1"/>
+      <c r="FD32" s="1"/>
+      <c r="FE32" s="1"/>
+      <c r="FF32" s="1"/>
+      <c r="FG32" s="1"/>
+      <c r="FH32" s="1"/>
+      <c r="FI32" s="1"/>
+      <c r="FJ32" s="1"/>
+      <c r="FK32" s="1"/>
+      <c r="FL32" s="1"/>
+      <c r="FM32" s="1"/>
+      <c r="FN32" s="1"/>
+      <c r="FO32" s="1"/>
+      <c r="FP32" s="1"/>
+      <c r="FQ32" s="1"/>
+      <c r="FR32" s="1"/>
+      <c r="FS32" s="1"/>
+      <c r="FT32" s="1"/>
+      <c r="FU32" s="1"/>
+      <c r="FV32" s="1"/>
+      <c r="FW32" s="1"/>
+      <c r="FX32" s="1"/>
+      <c r="FY32" s="1"/>
+      <c r="FZ32" s="1"/>
+      <c r="GA32" s="1"/>
+      <c r="GB32" s="1"/>
+      <c r="GC32" s="1"/>
+      <c r="GD32" s="1"/>
+      <c r="GE32" s="1"/>
+    </row>
+    <row r="33" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="6">
+        <v>166</v>
+      </c>
+      <c r="D33" s="6">
+        <v>35</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="1"/>
+      <c r="BM33" s="1"/>
+      <c r="BN33" s="1"/>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="1"/>
+      <c r="BT33" s="1"/>
+      <c r="BU33" s="1"/>
+      <c r="BV33" s="1"/>
+      <c r="BW33" s="1"/>
+      <c r="BX33" s="1"/>
+      <c r="BY33" s="1"/>
+      <c r="BZ33" s="1"/>
+      <c r="CA33" s="1"/>
+      <c r="CB33" s="1"/>
+      <c r="CC33" s="1"/>
+      <c r="CD33" s="1"/>
+      <c r="CE33" s="1"/>
+      <c r="CF33" s="1"/>
+      <c r="CG33" s="1"/>
+      <c r="CH33" s="1"/>
+      <c r="CI33" s="1"/>
+      <c r="CJ33" s="1"/>
+      <c r="CK33" s="1"/>
+      <c r="CL33" s="1"/>
+      <c r="CM33" s="1"/>
+      <c r="CN33" s="1"/>
+      <c r="CO33" s="1"/>
+      <c r="CP33" s="1"/>
+      <c r="CQ33" s="1"/>
+      <c r="CR33" s="1"/>
+      <c r="CS33" s="1"/>
+      <c r="CT33" s="1"/>
+      <c r="CU33" s="1"/>
+      <c r="CV33" s="1"/>
+      <c r="CW33" s="1"/>
+      <c r="CX33" s="1"/>
+      <c r="CY33" s="1"/>
+      <c r="CZ33" s="1"/>
+      <c r="DA33" s="1"/>
+      <c r="DB33" s="1"/>
+      <c r="DC33" s="1"/>
+      <c r="DD33" s="1"/>
+      <c r="DE33" s="1"/>
+      <c r="DF33" s="1"/>
+      <c r="DG33" s="1"/>
+      <c r="DH33" s="1"/>
+      <c r="DI33" s="1"/>
+      <c r="DJ33" s="1"/>
+      <c r="DK33" s="1"/>
+      <c r="DL33" s="1"/>
+      <c r="DM33" s="1"/>
+      <c r="DN33" s="1"/>
+      <c r="DO33" s="1"/>
+      <c r="DP33" s="1"/>
+      <c r="DQ33" s="1"/>
+      <c r="DR33" s="1"/>
+      <c r="DS33" s="1"/>
+      <c r="DT33" s="1"/>
+      <c r="DU33" s="1"/>
+      <c r="DV33" s="1"/>
+      <c r="DW33" s="1"/>
+      <c r="DX33" s="1"/>
+      <c r="DY33" s="1"/>
+      <c r="DZ33" s="1"/>
+      <c r="EA33" s="1"/>
+      <c r="EB33" s="1"/>
+      <c r="EC33" s="1"/>
+      <c r="ED33" s="1"/>
+      <c r="EE33" s="1"/>
+      <c r="EF33" s="1"/>
+      <c r="EG33" s="1"/>
+      <c r="EH33" s="1"/>
+      <c r="EI33" s="1"/>
+      <c r="EJ33" s="1"/>
+      <c r="EK33" s="1"/>
+      <c r="EL33" s="1"/>
+      <c r="EM33" s="1"/>
+      <c r="EN33" s="1"/>
+      <c r="EO33" s="1"/>
+      <c r="EP33" s="1"/>
+      <c r="EQ33" s="1"/>
+      <c r="ER33" s="1"/>
+      <c r="ES33" s="1"/>
+      <c r="ET33" s="1"/>
+      <c r="EU33" s="1"/>
+      <c r="EV33" s="1"/>
+      <c r="EW33" s="1"/>
+      <c r="EX33" s="1"/>
+      <c r="EY33" s="1"/>
+      <c r="EZ33" s="1"/>
+      <c r="FA33" s="1"/>
+      <c r="FB33" s="1"/>
+      <c r="FC33" s="1"/>
+      <c r="FD33" s="1"/>
+      <c r="FE33" s="1"/>
+      <c r="FF33" s="1"/>
+      <c r="FG33" s="1"/>
+      <c r="FH33" s="1"/>
+      <c r="FI33" s="1"/>
+      <c r="FJ33" s="1"/>
+      <c r="FK33" s="1"/>
+      <c r="FL33" s="1"/>
+      <c r="FM33" s="1"/>
+      <c r="FN33" s="1"/>
+      <c r="FO33" s="1"/>
+      <c r="FP33" s="1"/>
+      <c r="FQ33" s="1"/>
+      <c r="FR33" s="1"/>
+      <c r="FS33" s="1"/>
+      <c r="FT33" s="1"/>
+      <c r="FU33" s="1"/>
+      <c r="FV33" s="1"/>
+      <c r="FW33" s="1"/>
+      <c r="FX33" s="1"/>
+      <c r="FY33" s="1"/>
+      <c r="FZ33" s="1"/>
+      <c r="GA33" s="1"/>
+      <c r="GB33" s="1"/>
+      <c r="GC33" s="1"/>
+      <c r="GD33" s="1"/>
+      <c r="GE33" s="1"/>
+    </row>
+    <row r="34" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="6">
+        <v>201</v>
+      </c>
+      <c r="D34" s="6">
+        <v>10</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="1"/>
+      <c r="BW34" s="1"/>
+      <c r="BX34" s="1"/>
+      <c r="BY34" s="1"/>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
+      <c r="CC34" s="1"/>
+      <c r="CD34" s="1"/>
+      <c r="CE34" s="1"/>
+      <c r="CF34" s="1"/>
+      <c r="CG34" s="1"/>
+      <c r="CH34" s="1"/>
+      <c r="CI34" s="1"/>
+      <c r="CJ34" s="1"/>
+      <c r="CK34" s="1"/>
+      <c r="CL34" s="1"/>
+      <c r="CM34" s="1"/>
+      <c r="CN34" s="1"/>
+      <c r="CO34" s="1"/>
+      <c r="CP34" s="1"/>
+      <c r="CQ34" s="1"/>
+      <c r="CR34" s="1"/>
+      <c r="CS34" s="1"/>
+      <c r="CT34" s="1"/>
+      <c r="CU34" s="1"/>
+      <c r="CV34" s="1"/>
+      <c r="CW34" s="1"/>
+      <c r="CX34" s="1"/>
+      <c r="CY34" s="1"/>
+      <c r="CZ34" s="1"/>
+      <c r="DA34" s="1"/>
+      <c r="DB34" s="1"/>
+      <c r="DC34" s="1"/>
+      <c r="DD34" s="1"/>
+      <c r="DE34" s="1"/>
+      <c r="DF34" s="1"/>
+      <c r="DG34" s="1"/>
+      <c r="DH34" s="1"/>
+      <c r="DI34" s="1"/>
+      <c r="DJ34" s="1"/>
+      <c r="DK34" s="1"/>
+      <c r="DL34" s="1"/>
+      <c r="DM34" s="1"/>
+      <c r="DN34" s="1"/>
+      <c r="DO34" s="1"/>
+      <c r="DP34" s="1"/>
+      <c r="DQ34" s="1"/>
+      <c r="DR34" s="1"/>
+      <c r="DS34" s="1"/>
+      <c r="DT34" s="1"/>
+      <c r="DU34" s="1"/>
+      <c r="DV34" s="1"/>
+      <c r="DW34" s="1"/>
+      <c r="DX34" s="1"/>
+      <c r="DY34" s="1"/>
+      <c r="DZ34" s="1"/>
+      <c r="EA34" s="1"/>
+      <c r="EB34" s="1"/>
+      <c r="EC34" s="1"/>
+      <c r="ED34" s="1"/>
+      <c r="EE34" s="1"/>
+      <c r="EF34" s="1"/>
+      <c r="EG34" s="1"/>
+      <c r="EH34" s="1"/>
+      <c r="EI34" s="1"/>
+      <c r="EJ34" s="1"/>
+      <c r="EK34" s="1"/>
+      <c r="EL34" s="1"/>
+      <c r="EM34" s="1"/>
+      <c r="EN34" s="1"/>
+      <c r="EO34" s="1"/>
+      <c r="EP34" s="1"/>
+      <c r="EQ34" s="1"/>
+      <c r="ER34" s="1"/>
+      <c r="ES34" s="1"/>
+      <c r="ET34" s="1"/>
+      <c r="EU34" s="1"/>
+      <c r="EV34" s="1"/>
+      <c r="EW34" s="1"/>
+      <c r="EX34" s="1"/>
+      <c r="EY34" s="1"/>
+      <c r="EZ34" s="1"/>
+      <c r="FA34" s="1"/>
+      <c r="FB34" s="1"/>
+      <c r="FC34" s="1"/>
+      <c r="FD34" s="1"/>
+      <c r="FE34" s="1"/>
+      <c r="FF34" s="1"/>
+      <c r="FG34" s="1"/>
+      <c r="FH34" s="1"/>
+      <c r="FI34" s="1"/>
+      <c r="FJ34" s="1"/>
+      <c r="FK34" s="1"/>
+      <c r="FL34" s="1"/>
+      <c r="FM34" s="1"/>
+      <c r="FN34" s="1"/>
+      <c r="FO34" s="1"/>
+      <c r="FP34" s="1"/>
+      <c r="FQ34" s="1"/>
+      <c r="FR34" s="1"/>
+      <c r="FS34" s="1"/>
+      <c r="FT34" s="1"/>
+      <c r="FU34" s="1"/>
+      <c r="FV34" s="1"/>
+      <c r="FW34" s="1"/>
+      <c r="FX34" s="1"/>
+      <c r="FY34" s="1"/>
+      <c r="FZ34" s="1"/>
+      <c r="GA34" s="1"/>
+      <c r="GB34" s="1"/>
+      <c r="GC34" s="1"/>
+      <c r="GD34" s="1"/>
+      <c r="GE34" s="1"/>
+    </row>
+    <row r="35" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="6">
+        <v>90</v>
+      </c>
+      <c r="D35" s="6">
         <v>18</v>
       </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="1"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+      <c r="BT35" s="1"/>
+      <c r="BU35" s="1"/>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="1"/>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="1"/>
+      <c r="BZ35" s="1"/>
+      <c r="CA35" s="1"/>
+      <c r="CB35" s="1"/>
+      <c r="CC35" s="1"/>
+      <c r="CD35" s="1"/>
+      <c r="CE35" s="1"/>
+      <c r="CF35" s="1"/>
+      <c r="CG35" s="1"/>
+      <c r="CH35" s="1"/>
+      <c r="CI35" s="1"/>
+      <c r="CJ35" s="1"/>
+      <c r="CK35" s="1"/>
+      <c r="CL35" s="1"/>
+      <c r="CM35" s="1"/>
+      <c r="CN35" s="1"/>
+      <c r="CO35" s="1"/>
+      <c r="CP35" s="1"/>
+      <c r="CQ35" s="1"/>
+      <c r="CR35" s="1"/>
+      <c r="CS35" s="1"/>
+      <c r="CT35" s="1"/>
+      <c r="CU35" s="1"/>
+      <c r="CV35" s="1"/>
+      <c r="CW35" s="1"/>
+      <c r="CX35" s="1"/>
+      <c r="CY35" s="1"/>
+      <c r="CZ35" s="1"/>
+      <c r="DA35" s="1"/>
+      <c r="DB35" s="1"/>
+      <c r="DC35" s="1"/>
+      <c r="DD35" s="1"/>
+      <c r="DE35" s="1"/>
+      <c r="DF35" s="1"/>
+      <c r="DG35" s="1"/>
+      <c r="DH35" s="1"/>
+      <c r="DI35" s="1"/>
+      <c r="DJ35" s="1"/>
+      <c r="DK35" s="1"/>
+      <c r="DL35" s="1"/>
+      <c r="DM35" s="1"/>
+      <c r="DN35" s="1"/>
+      <c r="DO35" s="1"/>
+      <c r="DP35" s="1"/>
+      <c r="DQ35" s="1"/>
+      <c r="DR35" s="1"/>
+      <c r="DS35" s="1"/>
+      <c r="DT35" s="1"/>
+      <c r="DU35" s="1"/>
+      <c r="DV35" s="1"/>
+      <c r="DW35" s="1"/>
+      <c r="DX35" s="1"/>
+      <c r="DY35" s="1"/>
+      <c r="DZ35" s="1"/>
+      <c r="EA35" s="1"/>
+      <c r="EB35" s="1"/>
+      <c r="EC35" s="1"/>
+      <c r="ED35" s="1"/>
+      <c r="EE35" s="1"/>
+      <c r="EF35" s="1"/>
+      <c r="EG35" s="1"/>
+      <c r="EH35" s="1"/>
+      <c r="EI35" s="1"/>
+      <c r="EJ35" s="1"/>
+      <c r="EK35" s="1"/>
+      <c r="EL35" s="1"/>
+      <c r="EM35" s="1"/>
+      <c r="EN35" s="1"/>
+      <c r="EO35" s="1"/>
+      <c r="EP35" s="1"/>
+      <c r="EQ35" s="1"/>
+      <c r="ER35" s="1"/>
+      <c r="ES35" s="1"/>
+      <c r="ET35" s="1"/>
+      <c r="EU35" s="1"/>
+      <c r="EV35" s="1"/>
+      <c r="EW35" s="1"/>
+      <c r="EX35" s="1"/>
+      <c r="EY35" s="1"/>
+      <c r="EZ35" s="1"/>
+      <c r="FA35" s="1"/>
+      <c r="FB35" s="1"/>
+      <c r="FC35" s="1"/>
+      <c r="FD35" s="1"/>
+      <c r="FE35" s="1"/>
+      <c r="FF35" s="1"/>
+      <c r="FG35" s="1"/>
+      <c r="FH35" s="1"/>
+      <c r="FI35" s="1"/>
+      <c r="FJ35" s="1"/>
+      <c r="FK35" s="1"/>
+      <c r="FL35" s="1"/>
+      <c r="FM35" s="1"/>
+      <c r="FN35" s="1"/>
+      <c r="FO35" s="1"/>
+      <c r="FP35" s="1"/>
+      <c r="FQ35" s="1"/>
+      <c r="FR35" s="1"/>
+      <c r="FS35" s="1"/>
+      <c r="FT35" s="1"/>
+      <c r="FU35" s="1"/>
+      <c r="FV35" s="1"/>
+      <c r="FW35" s="1"/>
+      <c r="FX35" s="1"/>
+      <c r="FY35" s="1"/>
+      <c r="FZ35" s="1"/>
+      <c r="GA35" s="1"/>
+      <c r="GB35" s="1"/>
+      <c r="GC35" s="1"/>
+      <c r="GD35" s="1"/>
+      <c r="GE35" s="1"/>
+    </row>
+    <row r="36" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="6">
+        <v>108</v>
+      </c>
+      <c r="D36" s="6">
+        <v>30</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1"/>
+      <c r="BM36" s="1"/>
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
+      <c r="BT36" s="1"/>
+      <c r="BU36" s="1"/>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="1"/>
+      <c r="BX36" s="1"/>
+      <c r="BY36" s="1"/>
+      <c r="BZ36" s="1"/>
+      <c r="CA36" s="1"/>
+      <c r="CB36" s="1"/>
+      <c r="CC36" s="1"/>
+      <c r="CD36" s="1"/>
+      <c r="CE36" s="1"/>
+      <c r="CF36" s="1"/>
+      <c r="CG36" s="1"/>
+      <c r="CH36" s="1"/>
+      <c r="CI36" s="1"/>
+      <c r="CJ36" s="1"/>
+      <c r="CK36" s="1"/>
+      <c r="CL36" s="1"/>
+      <c r="CM36" s="1"/>
+      <c r="CN36" s="1"/>
+      <c r="CO36" s="1"/>
+      <c r="CP36" s="1"/>
+      <c r="CQ36" s="1"/>
+      <c r="CR36" s="1"/>
+      <c r="CS36" s="1"/>
+      <c r="CT36" s="1"/>
+      <c r="CU36" s="1"/>
+      <c r="CV36" s="1"/>
+      <c r="CW36" s="1"/>
+      <c r="CX36" s="1"/>
+      <c r="CY36" s="1"/>
+      <c r="CZ36" s="1"/>
+      <c r="DA36" s="1"/>
+      <c r="DB36" s="1"/>
+      <c r="DC36" s="1"/>
+      <c r="DD36" s="1"/>
+      <c r="DE36" s="1"/>
+      <c r="DF36" s="1"/>
+      <c r="DG36" s="1"/>
+      <c r="DH36" s="1"/>
+      <c r="DI36" s="1"/>
+      <c r="DJ36" s="1"/>
+      <c r="DK36" s="1"/>
+      <c r="DL36" s="1"/>
+      <c r="DM36" s="1"/>
+      <c r="DN36" s="1"/>
+      <c r="DO36" s="1"/>
+      <c r="DP36" s="1"/>
+      <c r="DQ36" s="1"/>
+      <c r="DR36" s="1"/>
+      <c r="DS36" s="1"/>
+      <c r="DT36" s="1"/>
+      <c r="DU36" s="1"/>
+      <c r="DV36" s="1"/>
+      <c r="DW36" s="1"/>
+      <c r="DX36" s="1"/>
+      <c r="DY36" s="1"/>
+      <c r="DZ36" s="1"/>
+      <c r="EA36" s="1"/>
+      <c r="EB36" s="1"/>
+      <c r="EC36" s="1"/>
+      <c r="ED36" s="1"/>
+      <c r="EE36" s="1"/>
+      <c r="EF36" s="1"/>
+      <c r="EG36" s="1"/>
+      <c r="EH36" s="1"/>
+      <c r="EI36" s="1"/>
+      <c r="EJ36" s="1"/>
+      <c r="EK36" s="1"/>
+      <c r="EL36" s="1"/>
+      <c r="EM36" s="1"/>
+      <c r="EN36" s="1"/>
+      <c r="EO36" s="1"/>
+      <c r="EP36" s="1"/>
+      <c r="EQ36" s="1"/>
+      <c r="ER36" s="1"/>
+      <c r="ES36" s="1"/>
+      <c r="ET36" s="1"/>
+      <c r="EU36" s="1"/>
+      <c r="EV36" s="1"/>
+      <c r="EW36" s="1"/>
+      <c r="EX36" s="1"/>
+      <c r="EY36" s="1"/>
+      <c r="EZ36" s="1"/>
+      <c r="FA36" s="1"/>
+      <c r="FB36" s="1"/>
+      <c r="FC36" s="1"/>
+      <c r="FD36" s="1"/>
+      <c r="FE36" s="1"/>
+      <c r="FF36" s="1"/>
+      <c r="FG36" s="1"/>
+      <c r="FH36" s="1"/>
+      <c r="FI36" s="1"/>
+      <c r="FJ36" s="1"/>
+      <c r="FK36" s="1"/>
+      <c r="FL36" s="1"/>
+      <c r="FM36" s="1"/>
+      <c r="FN36" s="1"/>
+      <c r="FO36" s="1"/>
+      <c r="FP36" s="1"/>
+      <c r="FQ36" s="1"/>
+      <c r="FR36" s="1"/>
+      <c r="FS36" s="1"/>
+      <c r="FT36" s="1"/>
+      <c r="FU36" s="1"/>
+      <c r="FV36" s="1"/>
+      <c r="FW36" s="1"/>
+      <c r="FX36" s="1"/>
+      <c r="FY36" s="1"/>
+      <c r="FZ36" s="1"/>
+      <c r="GA36" s="1"/>
+      <c r="GB36" s="1"/>
+      <c r="GC36" s="1"/>
+      <c r="GD36" s="1"/>
+      <c r="GE36" s="1"/>
+    </row>
+    <row r="37" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D37" s="39">
+        <f>SUM(D5:D36)</f>
+        <v>721</v>
+      </c>
+    </row>
+    <row r="39" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="37"/>
+    </row>
+    <row r="43" spans="2:187" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1587,7 +3561,7 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO30">
+  <conditionalFormatting sqref="H5:BO29 BP5 BQ5:BQ29 BS5:BS29 BU5:BU29 BW5:BW29 BY5:BY29 CA5:CA29 CC5:CC29 CE5:CE29 CG5:CG29 CI5:CI29 CK5:CK29 CM5:CM29 CO5:CO29 CQ5:CQ29 CS5:CS29 CU5:CU29 CW5:CW29 CY5:CY29 DA5:DA29 DC5:DC29 DE5:DE29 DG5:DG29 DI5:DI29 DK5:DK29 DM5:DM29 DO5:DO29 DQ5:DQ29 DS5:DS29 DU5:DU29 DW5:DW29 DY5:DY29 EA5:EA29 EC5:EC29 EE5:EE29 EG5:EG29 EI5:EI29 EK5:EK29 EM5:EM29 EO5:EO29 EQ5:EQ29 ES5:ES29 EU5:EU29 EW5:EW29 EY5:EY29 FA5:FA29 FC5:FC29 FE5:FE29 FG5:FG29 FI5:FI29 FK5:FK29 FM5:FM29 FO5:FO29 FQ5:FQ29 FS5:FS29 FU5:FU29 FW5:FW29 FY5:FY29 GA5:GA29 GC5:GC29 GE5:GE29 BR5 BT5 BV5 BX5 BZ5 CB5 CD5 CF5 CH5 CJ5 CL5 CN5 CP5 CR5 CT5 CV5 CX5 CZ5 DB5 DD5 DF5 DH5 DJ5 DL5 DN5 DP5 DR5 DT5 DV5 DX5 DZ5 EB5 ED5 EF5 EH5 EJ5 EL5 EN5 EP5 ER5 ET5 EV5 EX5 EZ5 FB5 FD5 FF5 FH5 FJ5 FL5 FN5 FP5 FR5 FT5 FV5 FX5 FZ5 GB5 GD5 H30:GE36">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>ProcentdelFuldført</formula>
     </cfRule>
@@ -1613,12 +3587,12 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:BO31">
+  <conditionalFormatting sqref="B31">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BO4">
+  <conditionalFormatting sqref="H4:GE4">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>H$4=valgt_tidsrum</formula>
     </cfRule>
